--- a/tests/fixtures/idmc_disaster_all_dataset.xlsx
+++ b/tests/fixtures/idmc_disaster_all_dataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t xml:space="preserve">ISO3</t>
   </si>
@@ -111,6 +111,18 @@
   <si>
     <t xml:space="preserve">Afghanistan: Flash flood - Bamyan - 29/04/2018 (IOM event)</t>
   </si>
+  <si>
+    <t xml:space="preserve">TZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-01-01</t>
+  </si>
 </sst>
 </file>
 
@@ -124,6 +136,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -220,7 +233,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -376,6 +389,52 @@
       </c>
       <c r="H6" s="0" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="1042150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
